--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.466</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>75.4509266677296</v>
+        <v>75.44637318860738</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-72.74194532602461</v>
+        <v>-72.74010103739849</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.466</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>75.44090138430188</v>
+        <v>75.4365559820707</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-72.72368304804306</v>
+        <v>-72.72177703074345</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.466</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>75.47888515603603</v>
+        <v>75.47470483714837</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-72.69568146919066</v>
+        <v>-72.69389809476993</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.466</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>75.45704643436844</v>
+        <v>75.45271495966877</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-72.66984842149985</v>
+        <v>-72.66795704321501</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.466</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>75.45811920466319</v>
+        <v>75.45393855090569</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-72.64155841457152</v>
+        <v>-72.63955462403382</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.466</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>75.44578826447301</v>
+        <v>75.4415994369046</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-72.61287670303403</v>
+        <v>-72.61098309169429</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.466</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>75.41509342359939</v>
+        <v>75.41070653358318</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-72.55449816720285</v>
+        <v>-72.55243773507875</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.466</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>75.40012514562659</v>
+        <v>75.39592792307239</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-72.53087366875539</v>
+        <v>-72.52882264522452</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.466</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>75.39350946070492</v>
+        <v>75.38914465833227</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-72.51028311095521</v>
+        <v>-72.50817881471868</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.466</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>75.39098506675595</v>
+        <v>75.38680302561501</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-72.45157306137895</v>
+        <v>-72.44936335526866</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.466</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>75.36936716890713</v>
+        <v>75.36512896102109</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-72.43840779685702</v>
+        <v>-72.43624160068372</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.466</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>75.33669771881686</v>
+        <v>75.33250396014297</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-72.40028611868202</v>
+        <v>-72.39799934501123</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.466</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>75.31492948744194</v>
+        <v>75.31062590040401</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-72.39135749238308</v>
+        <v>-72.38896933604879</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.466</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>75.31155092584525</v>
+        <v>75.30732892831058</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-72.34998732713575</v>
+        <v>-72.34752653276418</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.466</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>75.29147697921073</v>
+        <v>75.28737800301892</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-72.30053368774456</v>
+        <v>-72.29825413534888</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.466</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>75.26762737361445</v>
+        <v>75.26335336899824</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-72.27933248945237</v>
+        <v>-72.27699685401596</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.466</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>75.25733321177495</v>
+        <v>75.25303991573996</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-72.22692926858556</v>
+        <v>-72.22451722240328</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.466</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>75.23044352288822</v>
+        <v>75.22629471281917</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-72.15579453839848</v>
+        <v>-72.15340042464855</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.466</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>75.19383302367453</v>
+        <v>75.18966249212819</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-72.12408738023275</v>
+        <v>-72.12165905577505</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.466</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>75.15619435940869</v>
+        <v>75.15198967312384</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-72.09611484070527</v>
+        <v>-72.09371257177172</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.466</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>75.12315756294741</v>
+        <v>75.11904559211717</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-72.06382027086394</v>
+        <v>-72.06136628028452</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.466</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>75.10715401674442</v>
+        <v>75.1030342145786</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-72.02935415300702</v>
+        <v>-72.02704422490734</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.466</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>75.08743008138575</v>
+        <v>75.08342243892706</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-71.99221625100041</v>
+        <v>-71.98974540748536</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.466</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>75.05236762964192</v>
+        <v>75.04822289488757</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-71.92003564906933</v>
+        <v>-71.9177467919767</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.466</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>75.01891047845113</v>
+        <v>75.01891047845366</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-71.88475749736502</v>
+        <v>-71.88233773126214</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.466</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>75.00457088258685</v>
+        <v>75.00457088258939</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-71.83338659615265</v>
+        <v>-71.83091666254813</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.466</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>74.98793435878854</v>
+        <v>74.98793435879107</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-71.79200053988181</v>
+        <v>-71.78944316206642</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.466</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>74.9554226281068</v>
+        <v>74.95542262810933</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-71.73499521663862</v>
+        <v>-71.73246004160289</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.466</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>74.90966951016495</v>
+        <v>74.90966951016748</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-71.70501782725641</v>
+        <v>-71.70231784332579</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.466</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>74.8667277670083</v>
+        <v>74.86672776701083</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-71.63939624528105</v>
+        <v>-71.63689036524453</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.466</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>74.82549700590101</v>
+        <v>74.82549700590353</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-71.58472455435026</v>
+        <v>-71.58210713841505</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.466</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>74.80344613141921</v>
+        <v>74.80344613142171</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-71.54227545391973</v>
+        <v>-71.53969656093501</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.466</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>74.77734352495654</v>
+        <v>74.77734352495906</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-71.48505440292351</v>
+        <v>-71.48231319236076</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.466</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>74.7282009169712</v>
+        <v>74.72820091697368</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-71.43331106021795</v>
+        <v>-71.43068019807384</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.466</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>74.69637965522369</v>
+        <v>74.6963796552262</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-71.38679851243026</v>
+        <v>-71.38410344379015</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.466</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>74.65951940364013</v>
+        <v>74.65951940364263</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-71.338968871967</v>
+        <v>-71.33631827471631</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.465</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>74.6375377806561</v>
+        <v>74.63753778065863</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-71.28817743078197</v>
+        <v>-71.28551699808013</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.465</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>74.59884797012249</v>
+        <v>74.59884797012499</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-71.24164044093537</v>
+        <v>-71.23889289389744</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.465</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>74.560318165979</v>
+        <v>74.56031816598151</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-71.18360635888831</v>
+        <v>-71.18077101091568</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.465</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>74.51913902550297</v>
+        <v>74.51913902550547</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-71.10340066671765</v>
+        <v>-71.10064632986771</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.465</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>74.47774811199861</v>
+        <v>74.47774811200111</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-71.0685539175772</v>
+        <v>-71.06563942081939</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.465</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>74.4318202792179</v>
+        <v>74.43182027922037</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-71.02125635609463</v>
+        <v>-71.01837619015079</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.465</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>74.39621442296001</v>
+        <v>74.39621442296253</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-70.97560626108451</v>
+        <v>-70.97269123703258</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.465</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>74.34742182208871</v>
+        <v>74.34742182209118</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-70.90770094299478</v>
+        <v>-70.9046878969019</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.465</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>74.30222594230264</v>
+        <v>74.30222594230513</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-70.86645972871005</v>
+        <v>-70.86348824592395</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.465</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>74.27921183932517</v>
+        <v>74.27921183932767</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-70.81065173200872</v>
+        <v>-70.8075872080139</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.465</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>74.25087414873398</v>
+        <v>74.25087414873651</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-70.75758710596361</v>
+        <v>-70.75461384620866</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.465</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>74.21856208901502</v>
+        <v>74.21856208901752</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-70.68615332514705</v>
+        <v>-70.68312530913741</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-2.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -476,14 +476,14 @@
         <v>0.466</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>75.44637318860738</v>
+        <v>75.42275351747409</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-72.74010103739849</v>
+        <v>72.52766024827591</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.466</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>75.4365559820707</v>
+        <v>75.37070814056243</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-72.72177703074345</v>
+        <v>72.54414405287126</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.466</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>75.47470483714837</v>
+        <v>75.4713740014973</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-72.69389809476993</v>
+        <v>72.55372029428079</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.466</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>75.45271495966877</v>
+        <v>75.38677476972654</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-72.66795704321501</v>
+        <v>72.51266316387233</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.466</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>75.45393855090569</v>
+        <v>75.37765034636317</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-72.63955462403382</v>
+        <v>72.47753513361081</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.466</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>75.4415994369046</v>
+        <v>75.37473048747481</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-72.61098309169429</v>
+        <v>72.45338708336803</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.466</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>75.41070653358318</v>
+        <v>75.31764599114059</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-72.55243773507875</v>
+        <v>72.39576114313397</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.466</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>75.39592792307239</v>
+        <v>75.35414865050549</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-72.52882264522452</v>
+        <v>72.42172643503288</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.466</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>75.38914465833227</v>
+        <v>75.35640630552231</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-72.50817881471868</v>
+        <v>72.34407300531913</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.466</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>75.38680302561501</v>
+        <v>75.35101876624643</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-72.44936335526866</v>
+        <v>72.34659270848272</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.466</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>75.36512896102109</v>
+        <v>75.30772621617861</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-72.43624160068372</v>
+        <v>72.2745996047715</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.466</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>75.33250396014297</v>
+        <v>75.28258592685938</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-72.39799934501123</v>
+        <v>72.26699703763275</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.466</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>75.31062590040401</v>
+        <v>75.26024536725974</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-72.38896933604879</v>
+        <v>72.2557409218587</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.466</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>75.30732892831058</v>
+        <v>75.24715514268456</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-72.34752653276418</v>
+        <v>72.24871867248883</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.466</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>75.28737800301892</v>
+        <v>75.26277314544525</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-72.29825413534888</v>
+        <v>72.15359366253993</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.466</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>75.26335336899824</v>
+        <v>75.19222285452389</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-72.27699685401596</v>
+        <v>72.14803000735162</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.466</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>75.25303991573996</v>
+        <v>75.20726190661054</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-72.22451722240328</v>
+        <v>72.05307689530198</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.466</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>75.22629471281917</v>
+        <v>75.17599259899453</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-72.15340042464855</v>
+        <v>72.02910738469384</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.466</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>75.18966249212819</v>
+        <v>75.13865155392094</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-72.12165905577505</v>
+        <v>71.98989962448785</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.466</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>75.15198967312384</v>
+        <v>75.05809699224911</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-72.09371257177172</v>
+        <v>71.93098405749078</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.466</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>75.11904559211717</v>
+        <v>75.05726886037236</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-72.06136628028452</v>
+        <v>71.94315593562473</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.466</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>75.1030342145786</v>
+        <v>75.03642446196375</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-72.02704422490734</v>
+        <v>71.85889624570605</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.466</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>75.08342243892706</v>
+        <v>74.99872629324663</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-71.98974540748536</v>
+        <v>71.85096219929599</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.466</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>75.04822289488757</v>
+        <v>74.96457168895923</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-71.9177467919767</v>
+        <v>71.79063657061265</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.466</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>75.01891047845366</v>
+        <v>74.93978405066447</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-71.88233773126214</v>
+        <v>71.73247328972728</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.466</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>75.00457088258939</v>
+        <v>74.91482703927313</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-71.83091666254813</v>
+        <v>71.65639795844622</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.466</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>74.98793435879107</v>
+        <v>74.92529835746068</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-71.78944316206642</v>
+        <v>71.61785364982987</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.466</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>74.95542262810933</v>
+        <v>74.88396745941573</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-71.73246004160289</v>
+        <v>71.54500304843495</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.466</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>74.90966951016748</v>
+        <v>74.83959442519765</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-71.70231784332579</v>
+        <v>71.52337649103544</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.466</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>74.86672776701083</v>
+        <v>74.79883319823021</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-71.63689036524453</v>
+        <v>71.46875002704434</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.466</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>74.82549700590353</v>
+        <v>74.77553910803171</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-71.58210713841505</v>
+        <v>71.37649422227911</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.466</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>74.80344613142171</v>
+        <v>74.75429912362576</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-71.53969656093501</v>
+        <v>71.39080985960278</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.466</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>74.77734352495906</v>
+        <v>74.71839342515561</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-71.48231319236076</v>
+        <v>71.29877481836694</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.466</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>74.72820091697368</v>
+        <v>74.6769427132777</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-71.43068019807384</v>
+        <v>71.23409419152229</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.466</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>74.6963796552262</v>
+        <v>74.6576149893325</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-71.38410344379015</v>
+        <v>71.17342077035931</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.466</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>74.65951940364263</v>
+        <v>74.6233522297924</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-71.33631827471631</v>
+        <v>71.10836898071979</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.465</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>74.63753778065863</v>
+        <v>74.58153694189075</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-71.28551699808013</v>
+        <v>71.09938979387996</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.465</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>74.59884797012499</v>
+        <v>74.55388631438761</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-71.23889289389744</v>
+        <v>71.02938118121386</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.465</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>74.56031816598151</v>
+        <v>74.4994286919665</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-71.18077101091568</v>
+        <v>70.98489512202082</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.465</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>74.51913902550547</v>
+        <v>74.47307638180675</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-71.10064632986771</v>
+        <v>70.90555890308335</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.465</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>74.47774811200111</v>
+        <v>74.4240118712366</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-71.06563942081939</v>
+        <v>70.85251397476614</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.465</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>74.43182027922037</v>
+        <v>74.38590621918775</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-71.01837619015079</v>
+        <v>70.76117910038069</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.465</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>74.39621442296253</v>
+        <v>74.34727099932934</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-70.97269123703258</v>
+        <v>70.77444516918351</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.465</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>74.34742182209118</v>
+        <v>74.32841352482319</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-70.9046878969019</v>
+        <v>70.70449246315616</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.465</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>74.30222594230513</v>
+        <v>74.27540241901133</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-70.86348824592395</v>
+        <v>70.66332199786473</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.465</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>74.27921183932767</v>
+        <v>74.25600634041359</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-70.8075872080139</v>
+        <v>70.60784143558996</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.465</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>74.25087414873651</v>
+        <v>74.22411258964944</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-70.75461384620866</v>
+        <v>70.56799325608213</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.465</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>74.21856208901752</v>
+        <v>74.16685480908566</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-70.68312530913741</v>
+        <v>70.49800755346389</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
